--- a/biology/Médecine/Psychothérapie_de_soutien/Psychothérapie_de_soutien.xlsx
+++ b/biology/Médecine/Psychothérapie_de_soutien/Psychothérapie_de_soutien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Psychoth%C3%A9rapie_de_soutien</t>
+          <t>Psychothérapie_de_soutien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La psychothérapie de soutien  entre dans le champ des psychothérapies d’orientation psychanalytique (B. Brusset, 2003). Une telle psychothérapie se distingue de la psychothérapie psychanalytique, proprement dite, par des aménagements du cadre de cette dernière. Ces aménagements ont été décrits dans la littérature spécialisée psychanalytique (B. Brusset,  "Les psychothérapie", Paris, Puf, coll. « Que sais-je ? », 2003).   
 Toute psychothérapie ayant, en théorie, un "effet de soutien", elle peut constituer, dans une approche intégrative, une forme de psychothérapie qui participe à la réflexion sur les facteurs communs à toutes les psychothérapies, notamment en ce qui concerne les notions mises en évidence par Lisa Grencavage et John C. Norcross (1990)  et qui sont : l'alliance thérapeutique, l'expression des émotions douloureuses (jusqu'alors évitées), le développement de nouvelles habilités, etc.
